--- a/DOCUMENTACION/product backlog.xlsx
+++ b/DOCUMENTACION/product backlog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\germa\Desktop\doc _importante\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10EA0B7-486A-4BDA-A94E-AF4F93DB80C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC71F7DD-5CB0-4162-8AAF-50101580A33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{97931E66-726D-4F61-B152-4FE00B601460}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
   <si>
     <t>Nro. De Historias del Usuario</t>
   </si>
@@ -169,21 +169,12 @@
     </r>
   </si>
   <si>
-    <t>Busqueda de Medicos matriculados en el SIS-I</t>
-  </si>
-  <si>
     <t>Busqueda de medicamentos en vademecum del SIS-I</t>
   </si>
   <si>
     <t>Generar registros de Acesso a los productos</t>
   </si>
   <si>
-    <t>Pago online de las consultas realizadas (U007)</t>
-  </si>
-  <si>
-    <t>Pago online de medicamentos (U008)</t>
-  </si>
-  <si>
     <t>U019</t>
   </si>
   <si>
@@ -199,13 +190,58 @@
     <t>Envio mediante cadeteria registrada (U008)</t>
   </si>
   <si>
-    <t>Pago online del envio (U011)</t>
-  </si>
-  <si>
-    <t>Acceder al sistema de pagos de consultas de cada profesional registrado (U013 y  U007)</t>
-  </si>
-  <si>
     <t>Registro de medicamentos otorgados y pagados por el usuario registrado (U001)</t>
+  </si>
+  <si>
+    <t>Pago online del envio (U009)</t>
+  </si>
+  <si>
+    <t>Pago online de medicamentos (U007)</t>
+  </si>
+  <si>
+    <t>Acceder al sistema de pagos de los medicamentos (U007 y  U008)</t>
+  </si>
+  <si>
+    <t>Acceso  al registro de los servicios de cadeteria (empresa y empleado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Control de calidad de las entregas </t>
+  </si>
+  <si>
+    <t>U023</t>
+  </si>
+  <si>
+    <t>U024</t>
+  </si>
+  <si>
+    <t>U025</t>
+  </si>
+  <si>
+    <t>Acceso al listado de farmacias adheridas</t>
+  </si>
+  <si>
+    <t>Acceso al listado de entidades bancarias adheridas</t>
+  </si>
+  <si>
+    <t>Busqueda de productos en plataforma</t>
+  </si>
+  <si>
+    <t>Historial de compras</t>
+  </si>
+  <si>
+    <t>Registro de tarjetas bancarias (U010)</t>
+  </si>
+  <si>
+    <t>U026</t>
+  </si>
+  <si>
+    <t>U027</t>
+  </si>
+  <si>
+    <t>U028</t>
+  </si>
+  <si>
+    <t>Acceso a las planillas de facturacion</t>
   </si>
 </sst>
 </file>
@@ -261,7 +297,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -399,7 +435,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -417,7 +453,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -426,32 +462,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -491,9 +501,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -502,7 +509,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -819,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D580CE-A7F2-45AC-9942-966F1AEEC67A}">
-  <dimension ref="B2:D25"/>
+  <dimension ref="B2:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,7 +895,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -917,30 +927,30 @@
       <c r="C10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>36</v>
+      <c r="D12" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
@@ -951,7 +961,7 @@
         <v>22</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
@@ -962,7 +972,7 @@
         <v>22</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
@@ -973,7 +983,7 @@
         <v>22</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
@@ -981,10 +991,10 @@
         <v>13</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -995,7 +1005,7 @@
         <v>25</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
@@ -1006,7 +1016,7 @@
         <v>25</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
@@ -1017,7 +1027,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
@@ -1028,10 +1038,10 @@
         <v>25</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
         <v>18</v>
       </c>
@@ -1039,50 +1049,116 @@
         <v>25</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="4" t="s">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D29" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="4" t="s">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D30" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="11" t="s">
+    <row r="31" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D31" s="11" t="s">
         <v>30</v>
       </c>
     </row>
